--- a/biology/Zoologie/Hyracodon/Hyracodon.xlsx
+++ b/biology/Zoologie/Hyracodon/Hyracodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyracodon est un  genre de mammifères fossiles de la famille des Hyracodontidae, rattaché dans la nomenclature taxonomique classique à l'ordre des périssodactyles. Il a vécu de l'Éocène supérieur jusqu'au milieu de l'Oligocène, soit il y a environ −40 à −26 Ma (millions d'années)[2], [3]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyracodon est un  genre de mammifères fossiles de la famille des Hyracodontidae, rattaché dans la nomenclature taxonomique classique à l'ordre des périssodactyles. Il a vécu de l'Éocène supérieur jusqu'au milieu de l'Oligocène, soit il y a environ −40 à −26 Ma (millions d'années), . 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyracodon était un mammifère de la taille d'un poney (1,50 m de long) qui vivait dans les steppes et les forêts ouvertes d'Amérique du Nord au cours du Cénozoïque.
 Sa tête volumineuse par rapport à son corps et sa denture le rapprochent des rhinocéros.
@@ -544,7 +558,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De « odonte » du grec ancien ὀδούς, odoús, « dent » et du préfixe « Hyrax » faisant référence aux hyracoïdes actuels comme les damans : « à dents de damans ».
 </t>
